--- a/Accounts-Schedules/تدريب سامسونج و ايرالو 9-6-2025 تجمع.xlsx
+++ b/Accounts-Schedules/تدريب سامسونج و ايرالو 9-6-2025 تجمع.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7510" activeTab="5"/>
+    <workbookView windowWidth="19200" windowHeight="7510" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$B$2:$I$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$C$39:$H$60</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Sheet6!$A$2:$H$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="213">
   <si>
     <t>Hello team, </t>
   </si>
@@ -474,6 +474,102 @@
   </si>
   <si>
     <t>شريف زكي</t>
+  </si>
+  <si>
+    <t>Arrival: 9:00 AM</t>
+  </si>
+  <si>
+    <t>Employee ID</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>Pick-Up Point</t>
+  </si>
+  <si>
+    <t>Departure: 5:00 PM</t>
+  </si>
+  <si>
+    <t>Eslam Ashour</t>
+  </si>
+  <si>
+    <t>ميدان ابن الحكم الزيتون</t>
+  </si>
+  <si>
+    <t>Start date: 16/6/2025</t>
+  </si>
+  <si>
+    <t>هليوبلس</t>
+  </si>
+  <si>
+    <t>End Date: 20/6/2025</t>
+  </si>
+  <si>
+    <t>روكسي</t>
+  </si>
+  <si>
+    <t>Location: 5th Settlement</t>
+  </si>
+  <si>
+    <t>Bassel Hisham</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>سلم صقر</t>
+  </si>
+  <si>
+    <t>الجزيره</t>
+  </si>
+  <si>
+    <t>بوابه 6</t>
+  </si>
+  <si>
+    <t>Hibatalla Mohamed Ali Mohamed</t>
+  </si>
+  <si>
+    <t>Elwaleed Abuagla</t>
+  </si>
+  <si>
+    <t>Wafaa Salah</t>
+  </si>
+  <si>
+    <t>ارابيلا بلازا</t>
+  </si>
+  <si>
+    <t>Alaa Mohamed</t>
+  </si>
+  <si>
+    <t>ميدان رابعه</t>
+  </si>
+  <si>
+    <t>Mohamed Osama</t>
+  </si>
+  <si>
+    <t>الحي العاشر</t>
+  </si>
+  <si>
+    <t>جامع السلام</t>
+  </si>
+  <si>
+    <t>Anas Hany Elgharabawy</t>
+  </si>
+  <si>
+    <t>بوابه 1</t>
+  </si>
+  <si>
+    <t>ي - بدر</t>
+  </si>
+  <si>
+    <t>مدينه بدر</t>
+  </si>
+  <si>
+    <t>وفاء صلاح</t>
+  </si>
+  <si>
+    <t>محمد اسامة</t>
   </si>
   <si>
     <t>Below is the list of trainees scheduled for training at Samsung on Monday, June 9th, from 9 AM to 6 PM. Please ensure that if you are unable to reach any of the candidates listed below, you reply to this thread to avoid any transportation issues.</t>
@@ -594,7 +690,7 @@
     <numFmt numFmtId="179" formatCode="00000000000"/>
     <numFmt numFmtId="180" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -659,6 +755,25 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -818,7 +933,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -852,6 +967,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF46BDC6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1066,7 +1187,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1224,6 +1345,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1339,137 +1475,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1556,19 +1692,43 @@
     <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1581,32 +1741,32 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1971,358 +2131,358 @@
       <c r="A5" s="24"/>
     </row>
     <row r="6" ht="15.25" spans="1:3">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="47" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" ht="15.25" spans="1:3">
-      <c r="A7" s="40"/>
-      <c r="B7" s="35" t="s">
+      <c r="A7" s="48"/>
+      <c r="B7" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="42">
         <v>1155235315</v>
       </c>
     </row>
     <row r="8" ht="15.25" spans="1:3">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="42">
         <v>1113212112</v>
       </c>
     </row>
     <row r="9" ht="15.25" spans="1:3">
-      <c r="A9" s="40"/>
-      <c r="B9" s="35" t="s">
+      <c r="A9" s="48"/>
+      <c r="B9" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="43">
         <v>1227678800</v>
       </c>
     </row>
     <row r="10" ht="15.25" spans="1:3">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="43" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" ht="15.25" spans="1:3">
-      <c r="A11" s="40"/>
-      <c r="B11" s="35" t="s">
+      <c r="A11" s="48"/>
+      <c r="B11" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="43">
         <v>1098767288</v>
       </c>
     </row>
     <row r="12" ht="15.25" spans="1:3">
-      <c r="A12" s="40"/>
-      <c r="B12" s="35" t="s">
+      <c r="A12" s="48"/>
+      <c r="B12" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="43">
         <v>1024422223</v>
       </c>
     </row>
     <row r="13" ht="15.25" spans="1:3">
-      <c r="A13" s="40"/>
-      <c r="B13" s="35" t="s">
+      <c r="A13" s="48"/>
+      <c r="B13" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="43">
         <v>1008797315</v>
       </c>
     </row>
     <row r="14" ht="15.25" spans="1:3">
-      <c r="A14" s="40"/>
-      <c r="B14" s="35" t="s">
+      <c r="A14" s="48"/>
+      <c r="B14" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="43">
         <v>1094838040</v>
       </c>
     </row>
     <row r="15" ht="15.25" spans="1:3">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="42">
+      <c r="C15" s="50">
         <v>1227411514</v>
       </c>
     </row>
     <row r="16" ht="15.25" spans="1:3">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="42">
+      <c r="C16" s="50">
         <v>1145486915</v>
       </c>
     </row>
     <row r="17" ht="15.25" spans="1:3">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="50" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" ht="15.25" spans="1:3">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="42">
+      <c r="C18" s="50">
         <v>1112246872</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="1:3">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="42">
+      <c r="C19" s="50">
         <v>1028515847</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="1:3">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="50" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" ht="15.25" spans="1:3">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="45">
+      <c r="C21" s="53">
         <v>1067003524</v>
       </c>
     </row>
     <row r="22" ht="15.25" spans="1:3">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="53" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="23" ht="15.25" spans="1:3">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="35">
+      <c r="C23" s="43">
         <v>1147359910</v>
       </c>
     </row>
     <row r="24" ht="15.25" spans="1:3">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="35">
+      <c r="C24" s="43">
         <v>1123326376</v>
       </c>
     </row>
     <row r="25" ht="15.25" spans="1:3">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="35">
+      <c r="C25" s="43">
         <v>1556051017</v>
       </c>
     </row>
     <row r="26" ht="15.25" spans="1:3">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="35">
+      <c r="C26" s="43">
         <v>1288880146</v>
       </c>
     </row>
     <row r="27" ht="15.25" spans="1:3">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="35">
+      <c r="C27" s="43">
         <v>1553553976</v>
       </c>
     </row>
     <row r="28" ht="15.25" spans="1:3">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="35">
+      <c r="C28" s="43">
         <v>1001984292</v>
       </c>
     </row>
     <row r="29" ht="15.25" spans="1:3">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="35">
+      <c r="C29" s="43">
         <v>1022521573</v>
       </c>
     </row>
     <row r="30" ht="15.25" spans="1:3">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="35">
+      <c r="C30" s="43">
         <v>1110092210</v>
       </c>
     </row>
     <row r="31" ht="15.25" spans="1:3">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="35">
+      <c r="C31" s="43">
         <v>1142634858</v>
       </c>
     </row>
     <row r="32" ht="15.25" spans="1:3">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="46" t="s">
+      <c r="C32" s="54" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="33" ht="15.25" spans="1:3">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="46" t="s">
+      <c r="B33" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="35">
+      <c r="C33" s="43">
         <v>1019757946</v>
       </c>
     </row>
     <row r="34" ht="15.25" spans="1:3">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="46">
+      <c r="C34" s="54">
         <v>1142757572</v>
       </c>
     </row>
     <row r="35" ht="15.25" spans="1:3">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="48" t="s">
+      <c r="B35" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="48">
+      <c r="C35" s="56">
         <v>1090305240</v>
       </c>
     </row>
     <row r="36" ht="15.25" spans="1:3">
-      <c r="A36" s="49"/>
-      <c r="B36" s="50" t="s">
+      <c r="A36" s="57"/>
+      <c r="B36" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="50">
+      <c r="C36" s="58">
         <v>1507537460</v>
       </c>
     </row>
     <row r="37" ht="15.25" spans="1:3">
-      <c r="A37" s="51"/>
-      <c r="B37" s="52" t="s">
+      <c r="A37" s="59"/>
+      <c r="B37" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="52">
+      <c r="C37" s="60">
         <v>1141908301</v>
       </c>
     </row>
     <row r="38" ht="15.25" spans="1:3">
-      <c r="A38" s="53" t="s">
+      <c r="A38" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="52" t="s">
+      <c r="B38" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="C38" s="52">
+      <c r="C38" s="60">
         <v>1202222178</v>
       </c>
     </row>
     <row r="39" ht="15.25" spans="1:3">
-      <c r="A39" s="54"/>
-      <c r="B39" s="46" t="s">
+      <c r="A39" s="62"/>
+      <c r="B39" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="35">
+      <c r="C39" s="43">
         <v>1070869955</v>
       </c>
     </row>
@@ -2355,16 +2515,16 @@
       <c r="A1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="41" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2372,16 +2532,16 @@
       <c r="A2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="42">
         <v>1155235315</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="43" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2389,16 +2549,16 @@
       <c r="A3" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="42">
         <v>1113212112</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="43" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2406,16 +2566,16 @@
       <c r="A4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="43">
         <v>1227678800</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="43" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2423,16 +2583,16 @@
       <c r="A5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="43" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2440,16 +2600,16 @@
       <c r="A6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="43">
         <v>1098767288</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="43" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2457,16 +2617,16 @@
       <c r="A7" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="43">
         <v>1024422223</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="43" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2474,16 +2634,16 @@
       <c r="A8" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="35">
+      <c r="B8" s="43">
         <v>1008797315</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="43" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2491,16 +2651,16 @@
       <c r="A9" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="35">
+      <c r="B9" s="43">
         <v>1094838040</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="43" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2508,50 +2668,50 @@
       <c r="A10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="35">
+      <c r="B10" s="43">
         <v>1227411514</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="43" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="11" ht="15.25" spans="1:5">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="35">
+      <c r="B11" s="43">
         <v>1145486915</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="43" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="12" ht="15.25" spans="1:5">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="43" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2559,16 +2719,16 @@
       <c r="A13" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="43">
         <v>1112246872</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="43" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2576,16 +2736,16 @@
       <c r="A14" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="35">
+      <c r="B14" s="43">
         <v>1028515847</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="43" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2593,16 +2753,16 @@
       <c r="A15" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="43" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2610,16 +2770,16 @@
       <c r="A16" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="35">
+      <c r="B16" s="43">
         <v>1067003524</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="43" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2627,16 +2787,16 @@
       <c r="A17" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="43" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2644,16 +2804,16 @@
       <c r="A18" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="35">
+      <c r="B18" s="43">
         <v>1147359910</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="43" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2661,16 +2821,16 @@
       <c r="A19" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="35">
+      <c r="B19" s="43">
         <v>1123326376</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="43" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2678,16 +2838,16 @@
       <c r="A20" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="35">
+      <c r="B20" s="43">
         <v>1556051017</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="35" t="s">
+      <c r="E20" s="43" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2695,16 +2855,16 @@
       <c r="A21" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="35">
+      <c r="B21" s="43">
         <v>1288880146</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="35" t="s">
+      <c r="E21" s="43" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2712,16 +2872,16 @@
       <c r="A22" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="35">
+      <c r="B22" s="43">
         <v>1553553976</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D22" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="35" t="s">
+      <c r="E22" s="43" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2729,16 +2889,16 @@
       <c r="A23" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="35">
+      <c r="B23" s="43">
         <v>1001984292</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="E23" s="43" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2746,16 +2906,16 @@
       <c r="A24" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="35">
+      <c r="B24" s="43">
         <v>1022521573</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="D24" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="E24" s="35" t="s">
+      <c r="E24" s="43" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2763,16 +2923,16 @@
       <c r="A25" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="35">
+      <c r="B25" s="43">
         <v>1110092210</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="35" t="s">
+      <c r="E25" s="43" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2780,16 +2940,16 @@
       <c r="A26" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="35">
+      <c r="B26" s="43">
         <v>1142634858</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="35" t="s">
+      <c r="E26" s="43" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2797,16 +2957,16 @@
       <c r="A27" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="35" t="s">
+      <c r="E27" s="43" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2814,16 +2974,16 @@
       <c r="A28" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="35">
+      <c r="B28" s="43">
         <v>1019757946</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="35" t="s">
+      <c r="E28" s="43" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2831,16 +2991,16 @@
       <c r="A29" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="35">
+      <c r="B29" s="43">
         <v>1142757572</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="35" t="s">
+      <c r="E29" s="43" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2848,16 +3008,16 @@
       <c r="A30" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="B30" s="35">
+      <c r="B30" s="43">
         <v>1090305240</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="E30" s="35" t="s">
+      <c r="E30" s="43" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2865,16 +3025,16 @@
       <c r="A31" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="35">
+      <c r="B31" s="43">
         <v>1507537460</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="35" t="s">
+      <c r="D31" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="E31" s="35" t="s">
+      <c r="E31" s="43" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2882,33 +3042,33 @@
       <c r="A32" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="35">
+      <c r="B32" s="43">
         <v>1141908301</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="35" t="s">
+      <c r="D32" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="E32" s="35" t="s">
+      <c r="E32" s="43" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="33" ht="15.25" spans="1:5">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="35">
+      <c r="B33" s="43">
         <v>1202222178</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="35" t="s">
+      <c r="D33" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="E33" s="35" t="s">
+      <c r="E33" s="43" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2916,16 +3076,16 @@
       <c r="A34" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="35">
+      <c r="B34" s="43">
         <v>1070869955</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="35" t="s">
+      <c r="D34" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="E34" s="35" t="s">
+      <c r="E34" s="43" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2933,16 +3093,16 @@
       <c r="A35" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="D35" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="E35" s="35" t="s">
+      <c r="E35" s="43" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2955,18 +3115,18 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:I50"/>
+  <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H32"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40:F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="9.89090909090909" customWidth="1"/>
-    <col min="3" max="3" width="9.80909090909091" customWidth="1"/>
+    <col min="3" max="3" width="12.2727272727273" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="12.2727272727273" customWidth="1"/>
+    <col min="5" max="5" width="17.8545454545455" customWidth="1"/>
     <col min="6" max="6" width="22.8909090909091" customWidth="1"/>
     <col min="7" max="7" width="19.9909090909091" customWidth="1"/>
     <col min="8" max="8" width="17.7636363636364" customWidth="1"/>
@@ -3021,7 +3181,7 @@
       <c r="E3" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="5" t="s">
         <v>107</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -3047,7 +3207,7 @@
       <c r="E4" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="5" t="s">
         <v>108</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -3073,7 +3233,7 @@
       <c r="E5" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="5" t="s">
         <v>109</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -3125,7 +3285,7 @@
       <c r="E7" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="5" t="s">
         <v>111</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -3151,7 +3311,7 @@
       <c r="E8" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="5" t="s">
         <v>113</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -3177,7 +3337,7 @@
       <c r="E9" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="5" t="s">
         <v>114</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -3255,7 +3415,7 @@
       <c r="E12" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="5" t="s">
         <v>117</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -3281,7 +3441,7 @@
       <c r="E13" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="5" t="s">
         <v>118</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -3333,7 +3493,7 @@
       <c r="E15" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="5" t="s">
         <v>121</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -3359,7 +3519,7 @@
       <c r="E16" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="5" t="s">
         <v>122</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -3385,7 +3545,7 @@
       <c r="E17" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="5" t="s">
         <v>123</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -3437,7 +3597,7 @@
       <c r="E19" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="5" t="s">
         <v>125</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -3463,7 +3623,7 @@
       <c r="E20" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="5" t="s">
         <v>126</v>
       </c>
       <c r="G20" s="1" t="s">
@@ -3489,7 +3649,7 @@
       <c r="E21" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="5" t="s">
         <v>127</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -3515,7 +3675,7 @@
       <c r="E22" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="5" t="s">
         <v>128</v>
       </c>
       <c r="G22" s="1" t="s">
@@ -3541,7 +3701,7 @@
       <c r="E23" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="5" t="s">
         <v>129</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -3619,7 +3779,7 @@
       <c r="E26" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="5" t="s">
         <v>133</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -3671,7 +3831,7 @@
       <c r="E28" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="5" t="s">
         <v>135</v>
       </c>
       <c r="G28" s="1" t="s">
@@ -3749,7 +3909,7 @@
       <c r="E31" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="5" t="s">
         <v>139</v>
       </c>
       <c r="G31" s="1" t="s">
@@ -3883,101 +4043,894 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="4:8">
+    <row r="38" ht="15.25" spans="4:8">
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="4:8">
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-    </row>
-    <row r="40" spans="4:8">
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-    </row>
-    <row r="41" spans="4:8">
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-    </row>
-    <row r="42" spans="4:8">
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-    </row>
-    <row r="43" spans="4:8">
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-    </row>
-    <row r="44" spans="4:8">
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-    </row>
-    <row r="45" spans="4:8">
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-    </row>
-    <row r="46" spans="4:8">
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-    </row>
-    <row r="47" spans="4:8">
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-    </row>
-    <row r="48" spans="4:8">
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-    </row>
-    <row r="49" spans="4:8">
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-    </row>
-    <row r="50" spans="4:8">
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
+    <row r="39" ht="15.25" spans="1:10">
+      <c r="A39" t="s">
+        <v>146</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="H39" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="J39" s="7"/>
+    </row>
+    <row r="40" ht="17.75" spans="1:10">
+      <c r="A40" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" s="34">
+        <v>10334372</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="E40" s="36">
+        <v>0.375</v>
+      </c>
+      <c r="F40" s="36">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G40" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="H40" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="J40" s="7"/>
+    </row>
+    <row r="41" ht="17.75" spans="1:10">
+      <c r="A41" t="s">
+        <v>153</v>
+      </c>
+      <c r="C41" s="34">
+        <v>10334447</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="36">
+        <v>0.375</v>
+      </c>
+      <c r="F41" s="36">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G41" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="H41" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="J41" s="7"/>
+    </row>
+    <row r="42" ht="17.75" spans="1:10">
+      <c r="A42" t="s">
+        <v>155</v>
+      </c>
+      <c r="C42" s="34">
+        <v>10334375</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" s="36">
+        <v>0.375</v>
+      </c>
+      <c r="F42" s="36">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G42" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="H42" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="J42" s="7"/>
+    </row>
+    <row r="43" ht="17.75" spans="1:10">
+      <c r="A43" t="s">
+        <v>157</v>
+      </c>
+      <c r="C43" s="34">
+        <v>10334449</v>
+      </c>
+      <c r="D43" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="36">
+        <v>0.375</v>
+      </c>
+      <c r="F43" s="36">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G43" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="H43" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="J43" s="7"/>
+    </row>
+    <row r="44" ht="17.75" spans="3:10">
+      <c r="C44" s="34">
+        <v>10334381</v>
+      </c>
+      <c r="D44" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="E44" s="36">
+        <v>0.375</v>
+      </c>
+      <c r="F44" s="36">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G44" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="H44" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="J44" s="7"/>
+    </row>
+    <row r="45" ht="17.75" spans="3:10">
+      <c r="C45" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="D45" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="36">
+        <v>0.375</v>
+      </c>
+      <c r="F45" s="36">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G45" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="H45" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="J45" s="7"/>
+    </row>
+    <row r="46" ht="17.75" spans="3:10">
+      <c r="C46" s="34">
+        <v>10334342</v>
+      </c>
+      <c r="D46" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="36">
+        <v>0.375</v>
+      </c>
+      <c r="F46" s="36">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G46" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="H46" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="J46" s="7"/>
+    </row>
+    <row r="47" ht="17.75" spans="3:10">
+      <c r="C47" s="34">
+        <v>10318448</v>
+      </c>
+      <c r="D47" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" s="36">
+        <v>0.375</v>
+      </c>
+      <c r="F47" s="36">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G47" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="H47" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="J47" s="7"/>
+    </row>
+    <row r="48" ht="17.75" spans="3:10">
+      <c r="C48" s="34">
+        <v>10334451</v>
+      </c>
+      <c r="D48" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" s="36">
+        <v>0.375</v>
+      </c>
+      <c r="F48" s="36">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G48" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="H48" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="J48" s="7"/>
+    </row>
+    <row r="49" ht="17.75" spans="3:10">
+      <c r="C49" s="34">
+        <v>10334398</v>
+      </c>
+      <c r="D49" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E49" s="36">
+        <v>0.375</v>
+      </c>
+      <c r="F49" s="36">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G49" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="H49" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="J49" s="7"/>
+    </row>
+    <row r="50" ht="17.75" spans="3:10">
+      <c r="C50" s="34">
+        <v>10334368</v>
+      </c>
+      <c r="D50" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="E50" s="36">
+        <v>0.375</v>
+      </c>
+      <c r="F50" s="36">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G50" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="H50" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="J50" s="7"/>
+    </row>
+    <row r="51" ht="17.75" spans="3:8">
+      <c r="C51" s="34">
+        <v>10334465</v>
+      </c>
+      <c r="D51" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="E51" s="36">
+        <v>0.375</v>
+      </c>
+      <c r="F51" s="36">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G51" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="H51" s="37" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="52" ht="17.75" spans="3:8">
+      <c r="C52" s="34">
+        <v>10334366</v>
+      </c>
+      <c r="D52" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="E52" s="36">
+        <v>0.375</v>
+      </c>
+      <c r="F52" s="36">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G52" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="H52" s="39" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" ht="17.75" spans="3:8">
+      <c r="C53" s="34">
+        <v>10334476</v>
+      </c>
+      <c r="D53" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="E53" s="36">
+        <v>0.375</v>
+      </c>
+      <c r="F53" s="36">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G53" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="H53" s="37" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="54" ht="17.75" spans="3:8">
+      <c r="C54" s="34">
+        <v>10334370</v>
+      </c>
+      <c r="D54" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="E54" s="36">
+        <v>0.375</v>
+      </c>
+      <c r="F54" s="36">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G54" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="H54" s="37" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="55" ht="17.75" spans="3:8">
+      <c r="C55" s="34">
+        <v>10334393</v>
+      </c>
+      <c r="D55" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="E55" s="36">
+        <v>0.375</v>
+      </c>
+      <c r="F55" s="36">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G55" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="H55" s="37" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="56" ht="17.75" spans="3:8">
+      <c r="C56" s="34">
+        <v>10334367</v>
+      </c>
+      <c r="D56" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E56" s="36">
+        <v>0.375</v>
+      </c>
+      <c r="F56" s="36">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G56" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="H56" s="37" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="57" ht="17.75" spans="3:8">
+      <c r="C57" s="34">
+        <v>10334343</v>
+      </c>
+      <c r="D57" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="E57" s="36">
+        <v>0.375</v>
+      </c>
+      <c r="F57" s="36">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G57" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="H57" s="37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" ht="17.75" spans="3:8">
+      <c r="C58" s="34">
+        <v>10334475</v>
+      </c>
+      <c r="D58" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E58" s="36">
+        <v>0.375</v>
+      </c>
+      <c r="F58" s="36">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G58" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="H58" s="39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" ht="17.75" spans="3:8">
+      <c r="C59" s="34">
+        <v>10334395</v>
+      </c>
+      <c r="D59" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E59" s="36">
+        <v>0.375</v>
+      </c>
+      <c r="F59" s="36">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G59" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="H59" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="60" ht="17.75" spans="3:8">
+      <c r="C60" s="34">
+        <v>10334423</v>
+      </c>
+      <c r="D60" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="36">
+        <v>0.375</v>
+      </c>
+      <c r="F60" s="36">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G60" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="H60" s="37" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7">
+      <c r="B63">
+        <v>10334372</v>
+      </c>
+      <c r="C63" t="s">
+        <v>89</v>
+      </c>
+      <c r="D63" t="s">
+        <v>73</v>
+      </c>
+      <c r="E63" t="s">
+        <v>108</v>
+      </c>
+      <c r="F63">
+        <v>1001984292</v>
+      </c>
+      <c r="G63" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="B64">
+        <v>10334447</v>
+      </c>
+      <c r="C64" t="s">
+        <v>74</v>
+      </c>
+      <c r="D64" t="s">
+        <v>73</v>
+      </c>
+      <c r="E64" t="s">
+        <v>107</v>
+      </c>
+      <c r="F64" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7">
+      <c r="B65">
+        <v>10334375</v>
+      </c>
+      <c r="C65" t="s">
+        <v>156</v>
+      </c>
+      <c r="D65" t="s">
+        <v>73</v>
+      </c>
+      <c r="E65" t="s">
+        <v>109</v>
+      </c>
+      <c r="F65">
+        <v>1110092210</v>
+      </c>
+      <c r="G65" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7">
+      <c r="B66">
+        <v>10334449</v>
+      </c>
+      <c r="C66" t="s">
+        <v>84</v>
+      </c>
+      <c r="D66" t="s">
+        <v>112</v>
+      </c>
+      <c r="E66" t="s">
+        <v>111</v>
+      </c>
+      <c r="F66">
+        <v>1112246872</v>
+      </c>
+      <c r="G66" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7">
+      <c r="B67">
+        <v>10334381</v>
+      </c>
+      <c r="C67" t="s">
+        <v>84</v>
+      </c>
+      <c r="D67" t="s">
+        <v>112</v>
+      </c>
+      <c r="E67" t="s">
+        <v>113</v>
+      </c>
+      <c r="F67">
+        <v>1070869955</v>
+      </c>
+      <c r="G67" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7">
+      <c r="B68" t="s">
+        <v>159</v>
+      </c>
+      <c r="C68" t="s">
+        <v>79</v>
+      </c>
+      <c r="D68" t="s">
+        <v>66</v>
+      </c>
+      <c r="E68" t="s">
+        <v>117</v>
+      </c>
+      <c r="F68">
+        <v>1227411514</v>
+      </c>
+      <c r="G68" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7">
+      <c r="B69">
+        <v>10334342</v>
+      </c>
+      <c r="C69" t="s">
+        <v>67</v>
+      </c>
+      <c r="D69" t="s">
+        <v>66</v>
+      </c>
+      <c r="E69" t="s">
+        <v>114</v>
+      </c>
+      <c r="F69">
+        <v>1155235315</v>
+      </c>
+      <c r="G69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7">
+      <c r="B70">
+        <v>10318448</v>
+      </c>
+      <c r="C70" t="s">
+        <v>83</v>
+      </c>
+      <c r="D70" t="s">
+        <v>119</v>
+      </c>
+      <c r="E70" t="s">
+        <v>118</v>
+      </c>
+      <c r="F70" t="s">
+        <v>23</v>
+      </c>
+      <c r="G70" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7">
+      <c r="B71">
+        <v>10334451</v>
+      </c>
+      <c r="C71" t="s">
+        <v>85</v>
+      </c>
+      <c r="D71" t="s">
+        <v>71</v>
+      </c>
+      <c r="E71" t="s">
+        <v>122</v>
+      </c>
+      <c r="F71">
+        <v>1028515847</v>
+      </c>
+      <c r="G71" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7">
+      <c r="B72">
+        <v>10334398</v>
+      </c>
+      <c r="C72" t="s">
+        <v>72</v>
+      </c>
+      <c r="D72" t="s">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>127</v>
+      </c>
+      <c r="F72">
+        <v>1142757572</v>
+      </c>
+      <c r="G72" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7">
+      <c r="B73">
+        <v>10334368</v>
+      </c>
+      <c r="C73" t="s">
+        <v>72</v>
+      </c>
+      <c r="D73" t="s">
+        <v>71</v>
+      </c>
+      <c r="E73" t="s">
+        <v>123</v>
+      </c>
+      <c r="F73" t="s">
+        <v>34</v>
+      </c>
+      <c r="G73" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7">
+      <c r="B74">
+        <v>10334465</v>
+      </c>
+      <c r="C74" t="s">
+        <v>72</v>
+      </c>
+      <c r="D74" t="s">
+        <v>71</v>
+      </c>
+      <c r="E74" t="s">
+        <v>126</v>
+      </c>
+      <c r="F74" t="s">
+        <v>52</v>
+      </c>
+      <c r="G74" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7">
+      <c r="B75">
+        <v>10334366</v>
+      </c>
+      <c r="C75" t="s">
+        <v>72</v>
+      </c>
+      <c r="D75" t="s">
+        <v>71</v>
+      </c>
+      <c r="E75" t="s">
+        <v>125</v>
+      </c>
+      <c r="F75">
+        <v>1556051017</v>
+      </c>
+      <c r="G75" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7">
+      <c r="B76">
+        <v>10334476</v>
+      </c>
+      <c r="C76" t="s">
+        <v>75</v>
+      </c>
+      <c r="D76" t="s">
+        <v>71</v>
+      </c>
+      <c r="E76" t="s">
+        <v>176</v>
+      </c>
+      <c r="G76" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7">
+      <c r="B77">
+        <v>10334370</v>
+      </c>
+      <c r="C77" t="s">
+        <v>81</v>
+      </c>
+      <c r="D77" t="s">
+        <v>80</v>
+      </c>
+      <c r="E77" t="s">
+        <v>128</v>
+      </c>
+      <c r="F77">
+        <v>1145486915</v>
+      </c>
+      <c r="G77" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7">
+      <c r="B78">
+        <v>10334393</v>
+      </c>
+      <c r="C78" t="s">
+        <v>94</v>
+      </c>
+      <c r="D78" t="s">
+        <v>80</v>
+      </c>
+      <c r="E78" t="s">
+        <v>177</v>
+      </c>
+      <c r="G78" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7">
+      <c r="B79">
+        <v>10334367</v>
+      </c>
+      <c r="C79" t="s">
+        <v>93</v>
+      </c>
+      <c r="D79" t="s">
+        <v>80</v>
+      </c>
+      <c r="E79" t="s">
+        <v>129</v>
+      </c>
+      <c r="F79">
+        <v>1507537460</v>
+      </c>
+      <c r="G79" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7">
+      <c r="B80">
+        <v>10334343</v>
+      </c>
+      <c r="C80" t="s">
+        <v>70</v>
+      </c>
+      <c r="D80" t="s">
+        <v>132</v>
+      </c>
+      <c r="E80" t="s">
+        <v>133</v>
+      </c>
+      <c r="F80">
+        <v>1024422223</v>
+      </c>
+      <c r="G80" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7">
+      <c r="B81">
+        <v>10334475</v>
+      </c>
+      <c r="C81" t="s">
+        <v>70</v>
+      </c>
+      <c r="D81" t="s">
+        <v>132</v>
+      </c>
+      <c r="E81" t="s">
+        <v>135</v>
+      </c>
+      <c r="F81">
+        <v>1142634858</v>
+      </c>
+      <c r="G81" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7">
+      <c r="B82">
+        <v>10334395</v>
+      </c>
+      <c r="C82" t="s">
+        <v>76</v>
+      </c>
+      <c r="D82" t="s">
+        <v>138</v>
+      </c>
+      <c r="E82" t="s">
+        <v>139</v>
+      </c>
+      <c r="F82">
+        <v>1553553976</v>
+      </c>
+      <c r="G82" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="B83">
+        <v>10334423</v>
+      </c>
+      <c r="C83" t="s">
+        <v>175</v>
+      </c>
+      <c r="D83" t="s">
+        <v>174</v>
+      </c>
+      <c r="E83" t="s">
+        <v>137</v>
+      </c>
+      <c r="F83">
+        <v>1008797315</v>
+      </c>
+      <c r="G83" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B2:I36" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="B2:I36">
-      <sortCondition ref="G2"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C39:H60" etc:filterBottomFollowUsedRange="0">
+    <sortState ref="C40:H60">
+      <sortCondition ref="G39"/>
     </sortState>
     <extLst/>
   </autoFilter>
@@ -4003,7 +4956,7 @@
   <sheetData>
     <row r="1" ht="15.5" spans="1:1">
       <c r="A1" s="24" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:1">
@@ -4011,7 +4964,7 @@
     </row>
     <row r="3" ht="15" spans="1:1">
       <c r="A3" s="25" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" ht="15.5" spans="1:1">
@@ -4034,7 +4987,7 @@
     <row r="7" ht="25.75" spans="1:3">
       <c r="A7" s="28"/>
       <c r="B7" s="22" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="C7" s="22">
         <v>1550623084</v>
@@ -4043,7 +4996,7 @@
     <row r="8" ht="25.75" spans="1:3">
       <c r="A8" s="28"/>
       <c r="B8" s="22" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="C8" s="22">
         <v>1003219481</v>
@@ -4051,10 +5004,10 @@
     </row>
     <row r="9" ht="25.75" spans="1:3">
       <c r="A9" s="29" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="C9" s="22">
         <v>1127188332</v>
@@ -4065,7 +5018,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="C10" s="23">
         <v>1276707977</v>
@@ -4076,7 +5029,7 @@
         <v>43</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="C11" s="22">
         <v>1211337764</v>
@@ -4087,7 +5040,7 @@
         <v>24</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="C12" s="23">
         <v>1116487479</v>
@@ -4132,7 +5085,7 @@
     </row>
     <row r="2" ht="50.75" spans="1:5">
       <c r="A2" s="21" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="B2" s="22">
         <v>1550623084</v>
@@ -4141,15 +5094,15 @@
         <v>65</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" ht="50.75" spans="1:5">
       <c r="A3" s="21" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="B3" s="22">
         <v>1003219481</v>
@@ -4166,7 +5119,7 @@
     </row>
     <row r="4" ht="50.75" spans="1:5">
       <c r="A4" s="21" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="B4" s="22">
         <v>1127188332</v>
@@ -4183,7 +5136,7 @@
     </row>
     <row r="5" ht="50.75" spans="1:5">
       <c r="A5" s="21" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="B5" s="23">
         <v>1276707977</v>
@@ -4200,7 +5153,7 @@
     </row>
     <row r="6" ht="50.75" spans="1:5">
       <c r="A6" s="21" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="B6" s="22">
         <v>1211337764</v>
@@ -4209,15 +5162,15 @@
         <v>65</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" ht="50.75" spans="1:5">
       <c r="A7" s="21" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="B7" s="23">
         <v>1116487479</v>
@@ -4244,7 +5197,7 @@
   <sheetPr/>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C18" sqref="C18:F21"/>
     </sheetView>
   </sheetViews>
@@ -4260,10 +5213,10 @@
   <sheetData>
     <row r="1" customHeight="1" spans="6:8">
       <c r="F1" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="H1" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4303,7 +5256,7 @@
         <v>106</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>112</v>
@@ -4312,7 +5265,7 @@
         <v>84</v>
       </c>
       <c r="H3" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4329,7 +5282,7 @@
         <v>106</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>112</v>
@@ -4338,7 +5291,7 @@
         <v>84</v>
       </c>
       <c r="H4" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4355,16 +5308,16 @@
         <v>106</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="H5" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4381,16 +5334,16 @@
         <v>106</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="H6" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4407,7 +5360,7 @@
         <v>106</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>80</v>
@@ -4416,7 +5369,7 @@
         <v>81</v>
       </c>
       <c r="H7" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4433,16 +5386,16 @@
         <v>106</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>73</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="H8" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="3:7">
@@ -4487,32 +5440,33 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
+    <row r="15" ht="15.25"/>
     <row r="16" spans="3:9">
       <c r="C16" s="8" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" ht="15.25" spans="1:9">
       <c r="A17" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
@@ -4524,13 +5478,13 @@
     </row>
     <row r="18" ht="15.25" spans="1:9">
       <c r="A18" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="C18" s="12">
         <v>10334245</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="E18" s="14">
         <v>0.375</v>
@@ -4542,21 +5496,21 @@
         <v>1003219481</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="1:9">
       <c r="A19" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="C19" s="12">
         <v>10334246</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="E19" s="14">
         <v>0.375</v>
@@ -4568,7 +5522,7 @@
         <v>1211337764</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="I19" s="15" t="s">
         <v>79</v>
@@ -4576,13 +5530,13 @@
     </row>
     <row r="20" ht="15.25" spans="1:9">
       <c r="A20" t="s">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="C20" s="12">
         <v>10334248</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="E20" s="14">
         <v>0.375</v>
@@ -4594,18 +5548,18 @@
         <v>1116487479</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="I20" s="16" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="3:9">
+    <row r="21" ht="15.25" spans="3:9">
       <c r="C21" s="12">
         <v>10334247</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="E21" s="14">
         <v>0.375</v>
@@ -4617,7 +5571,7 @@
         <v>1276707977</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="I21" s="13" t="s">
         <v>84</v>

--- a/Accounts-Schedules/تدريب سامسونج و ايرالو 9-6-2025 تجمع.xlsx
+++ b/Accounts-Schedules/تدريب سامسونج و ايرالو 9-6-2025 تجمع.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="212">
   <si>
     <t>Hello team, </t>
   </si>
@@ -492,9 +492,6 @@
   </si>
   <si>
     <t>Eslam Ashour</t>
-  </si>
-  <si>
-    <t>ميدان ابن الحكم الزيتون</t>
   </si>
   <si>
     <t>Start date: 16/6/2025</t>
@@ -1605,7 +1602,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1708,9 +1705,6 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2131,358 +2125,358 @@
       <c r="A5" s="24"/>
     </row>
     <row r="6" ht="15.25" spans="1:3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="46" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" ht="15.25" spans="1:3">
-      <c r="A7" s="48"/>
-      <c r="B7" s="43" t="s">
+      <c r="A7" s="47"/>
+      <c r="B7" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="41">
         <v>1155235315</v>
       </c>
     </row>
     <row r="8" ht="15.25" spans="1:3">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="41">
         <v>1113212112</v>
       </c>
     </row>
     <row r="9" ht="15.25" spans="1:3">
-      <c r="A9" s="48"/>
-      <c r="B9" s="43" t="s">
+      <c r="A9" s="47"/>
+      <c r="B9" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="43">
+      <c r="C9" s="42">
         <v>1227678800</v>
       </c>
     </row>
     <row r="10" ht="15.25" spans="1:3">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="42" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" ht="15.25" spans="1:3">
-      <c r="A11" s="48"/>
-      <c r="B11" s="43" t="s">
+      <c r="A11" s="47"/>
+      <c r="B11" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="43">
+      <c r="C11" s="42">
         <v>1098767288</v>
       </c>
     </row>
     <row r="12" ht="15.25" spans="1:3">
-      <c r="A12" s="48"/>
-      <c r="B12" s="43" t="s">
+      <c r="A12" s="47"/>
+      <c r="B12" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="43">
+      <c r="C12" s="42">
         <v>1024422223</v>
       </c>
     </row>
     <row r="13" ht="15.25" spans="1:3">
-      <c r="A13" s="48"/>
-      <c r="B13" s="43" t="s">
+      <c r="A13" s="47"/>
+      <c r="B13" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="43">
+      <c r="C13" s="42">
         <v>1008797315</v>
       </c>
     </row>
     <row r="14" ht="15.25" spans="1:3">
-      <c r="A14" s="48"/>
-      <c r="B14" s="43" t="s">
+      <c r="A14" s="47"/>
+      <c r="B14" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="43">
+      <c r="C14" s="42">
         <v>1094838040</v>
       </c>
     </row>
     <row r="15" ht="15.25" spans="1:3">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="50">
+      <c r="C15" s="49">
         <v>1227411514</v>
       </c>
     </row>
     <row r="16" ht="15.25" spans="1:3">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="50">
+      <c r="C16" s="49">
         <v>1145486915</v>
       </c>
     </row>
     <row r="17" ht="15.25" spans="1:3">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="49" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" ht="15.25" spans="1:3">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="50">
+      <c r="C18" s="49">
         <v>1112246872</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="1:3">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="50">
+      <c r="C19" s="49">
         <v>1028515847</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="1:3">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="49" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" ht="15.25" spans="1:3">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="53">
+      <c r="C21" s="52">
         <v>1067003524</v>
       </c>
     </row>
     <row r="22" ht="15.25" spans="1:3">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="53" t="s">
+      <c r="C22" s="52" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="23" ht="15.25" spans="1:3">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="43">
+      <c r="C23" s="42">
         <v>1147359910</v>
       </c>
     </row>
     <row r="24" ht="15.25" spans="1:3">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="43">
+      <c r="C24" s="42">
         <v>1123326376</v>
       </c>
     </row>
     <row r="25" ht="15.25" spans="1:3">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="43">
+      <c r="C25" s="42">
         <v>1556051017</v>
       </c>
     </row>
     <row r="26" ht="15.25" spans="1:3">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="43">
+      <c r="C26" s="42">
         <v>1288880146</v>
       </c>
     </row>
     <row r="27" ht="15.25" spans="1:3">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="43">
+      <c r="C27" s="42">
         <v>1553553976</v>
       </c>
     </row>
     <row r="28" ht="15.25" spans="1:3">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="43">
+      <c r="C28" s="42">
         <v>1001984292</v>
       </c>
     </row>
     <row r="29" ht="15.25" spans="1:3">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="43">
+      <c r="C29" s="42">
         <v>1022521573</v>
       </c>
     </row>
     <row r="30" ht="15.25" spans="1:3">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="43">
+      <c r="C30" s="42">
         <v>1110092210</v>
       </c>
     </row>
     <row r="31" ht="15.25" spans="1:3">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="43">
+      <c r="C31" s="42">
         <v>1142634858</v>
       </c>
     </row>
     <row r="32" ht="15.25" spans="1:3">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="54" t="s">
+      <c r="C32" s="53" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="33" ht="15.25" spans="1:3">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="54" t="s">
+      <c r="B33" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="43">
+      <c r="C33" s="42">
         <v>1019757946</v>
       </c>
     </row>
     <row r="34" ht="15.25" spans="1:3">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="43" t="s">
+      <c r="B34" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="54">
+      <c r="C34" s="53">
         <v>1142757572</v>
       </c>
     </row>
     <row r="35" ht="15.25" spans="1:3">
-      <c r="A35" s="55" t="s">
+      <c r="A35" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="56">
+      <c r="C35" s="55">
         <v>1090305240</v>
       </c>
     </row>
     <row r="36" ht="15.25" spans="1:3">
-      <c r="A36" s="57"/>
-      <c r="B36" s="58" t="s">
+      <c r="A36" s="56"/>
+      <c r="B36" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="58">
+      <c r="C36" s="57">
         <v>1507537460</v>
       </c>
     </row>
     <row r="37" ht="15.25" spans="1:3">
-      <c r="A37" s="59"/>
-      <c r="B37" s="60" t="s">
+      <c r="A37" s="58"/>
+      <c r="B37" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="60">
+      <c r="C37" s="59">
         <v>1141908301</v>
       </c>
     </row>
     <row r="38" ht="15.25" spans="1:3">
-      <c r="A38" s="61" t="s">
+      <c r="A38" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="60" t="s">
+      <c r="B38" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="C38" s="60">
+      <c r="C38" s="59">
         <v>1202222178</v>
       </c>
     </row>
     <row r="39" ht="15.25" spans="1:3">
-      <c r="A39" s="62"/>
-      <c r="B39" s="54" t="s">
+      <c r="A39" s="61"/>
+      <c r="B39" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="43">
+      <c r="C39" s="42">
         <v>1070869955</v>
       </c>
     </row>
@@ -2515,16 +2509,16 @@
       <c r="A1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="40" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2532,16 +2526,16 @@
       <c r="A2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="42">
+      <c r="B2" s="41">
         <v>1155235315</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="42" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2549,16 +2543,16 @@
       <c r="A3" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="42">
+      <c r="B3" s="41">
         <v>1113212112</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="42" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2566,16 +2560,16 @@
       <c r="A4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="42">
         <v>1227678800</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="42" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2583,16 +2577,16 @@
       <c r="A5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="42" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2600,16 +2594,16 @@
       <c r="A6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="43">
+      <c r="B6" s="42">
         <v>1098767288</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="42" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2617,16 +2611,16 @@
       <c r="A7" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="42">
         <v>1024422223</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="42" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2634,16 +2628,16 @@
       <c r="A8" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="43">
+      <c r="B8" s="42">
         <v>1008797315</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="42" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2651,16 +2645,16 @@
       <c r="A9" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="43">
+      <c r="B9" s="42">
         <v>1094838040</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="42" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2668,50 +2662,50 @@
       <c r="A10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="43">
+      <c r="B10" s="42">
         <v>1227411514</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="42" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="11" ht="15.25" spans="1:5">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="43">
+      <c r="B11" s="42">
         <v>1145486915</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="42" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="12" ht="15.25" spans="1:5">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="E12" s="42" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2719,16 +2713,16 @@
       <c r="A13" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="43">
+      <c r="B13" s="42">
         <v>1112246872</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="43" t="s">
+      <c r="E13" s="42" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2736,16 +2730,16 @@
       <c r="A14" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="43">
+      <c r="B14" s="42">
         <v>1028515847</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="43" t="s">
+      <c r="E14" s="42" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2753,16 +2747,16 @@
       <c r="A15" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="42" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2770,16 +2764,16 @@
       <c r="A16" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="43">
+      <c r="B16" s="42">
         <v>1067003524</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="43" t="s">
+      <c r="D16" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="43" t="s">
+      <c r="E16" s="42" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2787,16 +2781,16 @@
       <c r="A17" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="E17" s="42" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2804,16 +2798,16 @@
       <c r="A18" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="43">
+      <c r="B18" s="42">
         <v>1147359910</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="43" t="s">
+      <c r="E18" s="42" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2821,16 +2815,16 @@
       <c r="A19" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="43">
+      <c r="B19" s="42">
         <v>1123326376</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="43" t="s">
+      <c r="D19" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="E19" s="43" t="s">
+      <c r="E19" s="42" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2838,16 +2832,16 @@
       <c r="A20" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="43">
+      <c r="B20" s="42">
         <v>1556051017</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="43" t="s">
+      <c r="D20" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="43" t="s">
+      <c r="E20" s="42" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2855,16 +2849,16 @@
       <c r="A21" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="43">
+      <c r="B21" s="42">
         <v>1288880146</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="43" t="s">
+      <c r="E21" s="42" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2872,16 +2866,16 @@
       <c r="A22" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="43">
+      <c r="B22" s="42">
         <v>1553553976</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="43" t="s">
+      <c r="D22" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="43" t="s">
+      <c r="E22" s="42" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2889,16 +2883,16 @@
       <c r="A23" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="43">
+      <c r="B23" s="42">
         <v>1001984292</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="43" t="s">
+      <c r="D23" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="43" t="s">
+      <c r="E23" s="42" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2906,16 +2900,16 @@
       <c r="A24" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="43">
+      <c r="B24" s="42">
         <v>1022521573</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="43" t="s">
+      <c r="D24" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="E24" s="43" t="s">
+      <c r="E24" s="42" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2923,16 +2917,16 @@
       <c r="A25" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="43">
+      <c r="B25" s="42">
         <v>1110092210</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="43" t="s">
+      <c r="D25" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="43" t="s">
+      <c r="E25" s="42" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2940,16 +2934,16 @@
       <c r="A26" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="43">
+      <c r="B26" s="42">
         <v>1142634858</v>
       </c>
-      <c r="C26" s="43" t="s">
+      <c r="C26" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="43" t="s">
+      <c r="D26" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="43" t="s">
+      <c r="E26" s="42" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2957,16 +2951,16 @@
       <c r="A27" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="43" t="s">
+      <c r="C27" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="43" t="s">
+      <c r="D27" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="43" t="s">
+      <c r="E27" s="42" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2974,16 +2968,16 @@
       <c r="A28" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="43">
+      <c r="B28" s="42">
         <v>1019757946</v>
       </c>
-      <c r="C28" s="43" t="s">
+      <c r="C28" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="43" t="s">
+      <c r="D28" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="43" t="s">
+      <c r="E28" s="42" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2991,16 +2985,16 @@
       <c r="A29" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="43">
+      <c r="B29" s="42">
         <v>1142757572</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="43" t="s">
+      <c r="D29" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="43" t="s">
+      <c r="E29" s="42" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3008,16 +3002,16 @@
       <c r="A30" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="B30" s="43">
+      <c r="B30" s="42">
         <v>1090305240</v>
       </c>
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="43" t="s">
+      <c r="D30" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="E30" s="43" t="s">
+      <c r="E30" s="42" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3025,16 +3019,16 @@
       <c r="A31" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="43">
+      <c r="B31" s="42">
         <v>1507537460</v>
       </c>
-      <c r="C31" s="43" t="s">
+      <c r="C31" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="43" t="s">
+      <c r="D31" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="E31" s="43" t="s">
+      <c r="E31" s="42" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3042,33 +3036,33 @@
       <c r="A32" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="43">
+      <c r="B32" s="42">
         <v>1141908301</v>
       </c>
-      <c r="C32" s="43" t="s">
+      <c r="C32" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="43" t="s">
+      <c r="D32" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="E32" s="43" t="s">
+      <c r="E32" s="42" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="33" ht="15.25" spans="1:5">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="43">
+      <c r="B33" s="42">
         <v>1202222178</v>
       </c>
-      <c r="C33" s="43" t="s">
+      <c r="C33" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="43" t="s">
+      <c r="D33" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="E33" s="43" t="s">
+      <c r="E33" s="42" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3076,16 +3070,16 @@
       <c r="A34" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="43">
+      <c r="B34" s="42">
         <v>1070869955</v>
       </c>
-      <c r="C34" s="43" t="s">
+      <c r="C34" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="43" t="s">
+      <c r="D34" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="E34" s="43" t="s">
+      <c r="E34" s="42" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3093,16 +3087,16 @@
       <c r="A35" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="C35" s="43" t="s">
+      <c r="C35" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="43" t="s">
+      <c r="D35" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="E35" s="43" t="s">
+      <c r="E35" s="42" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3118,7 +3112,7 @@
   <dimension ref="A1:J83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40:F60"/>
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -4090,13 +4084,13 @@
         <v>73</v>
       </c>
       <c r="H40" s="37" t="s">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="J40" s="7"/>
     </row>
     <row r="41" ht="17.75" spans="1:10">
       <c r="A41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C41" s="34">
         <v>10334447</v>
@@ -4114,13 +4108,13 @@
         <v>73</v>
       </c>
       <c r="H41" s="37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J41" s="7"/>
     </row>
     <row r="42" ht="17.75" spans="1:10">
       <c r="A42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C42" s="34">
         <v>10334375</v>
@@ -4138,13 +4132,13 @@
         <v>73</v>
       </c>
       <c r="H42" s="37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J42" s="7"/>
     </row>
     <row r="43" ht="17.75" spans="1:10">
       <c r="A43" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C43" s="34">
         <v>10334449</v>
@@ -4171,7 +4165,7 @@
         <v>10334381</v>
       </c>
       <c r="D44" s="35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E44" s="36">
         <v>0.375</v>
@@ -4188,8 +4182,8 @@
       <c r="J44" s="7"/>
     </row>
     <row r="45" ht="17.75" spans="3:10">
-      <c r="C45" s="38" t="s">
-        <v>159</v>
+      <c r="C45" s="12" t="s">
+        <v>158</v>
       </c>
       <c r="D45" s="35" t="s">
         <v>18</v>
@@ -4225,7 +4219,7 @@
         <v>66</v>
       </c>
       <c r="H46" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J46" s="7"/>
     </row>
@@ -4242,10 +4236,10 @@
       <c r="F47" s="36">
         <v>0.708333333333333</v>
       </c>
-      <c r="G47" s="39" t="s">
+      <c r="G47" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="H47" s="39" t="s">
+      <c r="H47" s="38" t="s">
         <v>83</v>
       </c>
       <c r="J47" s="7"/>
@@ -4263,11 +4257,11 @@
       <c r="F48" s="36">
         <v>0.708333333333333</v>
       </c>
-      <c r="G48" s="39" t="s">
+      <c r="G48" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="H48" s="39" t="s">
-        <v>161</v>
+      <c r="H48" s="38" t="s">
+        <v>160</v>
       </c>
       <c r="J48" s="7"/>
     </row>
@@ -4284,11 +4278,11 @@
       <c r="F49" s="36">
         <v>0.708333333333333</v>
       </c>
-      <c r="G49" s="39" t="s">
+      <c r="G49" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="H49" s="39" t="s">
-        <v>162</v>
+      <c r="H49" s="38" t="s">
+        <v>161</v>
       </c>
       <c r="J49" s="7"/>
     </row>
@@ -4297,7 +4291,7 @@
         <v>10334368</v>
       </c>
       <c r="D50" s="35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E50" s="36">
         <v>0.375</v>
@@ -4305,11 +4299,11 @@
       <c r="F50" s="36">
         <v>0.708333333333333</v>
       </c>
-      <c r="G50" s="39" t="s">
+      <c r="G50" s="38" t="s">
         <v>71</v>
       </c>
       <c r="H50" s="37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J50" s="7"/>
     </row>
@@ -4326,11 +4320,11 @@
       <c r="F51" s="36">
         <v>0.708333333333333</v>
       </c>
-      <c r="G51" s="39" t="s">
+      <c r="G51" s="38" t="s">
         <v>71</v>
       </c>
       <c r="H51" s="37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" ht="17.75" spans="3:8">
@@ -4338,7 +4332,7 @@
         <v>10334366</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E52" s="36">
         <v>0.375</v>
@@ -4346,11 +4340,11 @@
       <c r="F52" s="36">
         <v>0.708333333333333</v>
       </c>
-      <c r="G52" s="39" t="s">
+      <c r="G52" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="H52" s="39" t="s">
-        <v>162</v>
+      <c r="H52" s="38" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="53" ht="17.75" spans="3:8">
@@ -4358,7 +4352,7 @@
         <v>10334476</v>
       </c>
       <c r="D53" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E53" s="36">
         <v>0.375</v>
@@ -4366,11 +4360,11 @@
       <c r="F53" s="36">
         <v>0.708333333333333</v>
       </c>
-      <c r="G53" s="39" t="s">
+      <c r="G53" s="38" t="s">
         <v>71</v>
       </c>
       <c r="H53" s="37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" ht="17.75" spans="3:8">
@@ -4378,7 +4372,7 @@
         <v>10334370</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E54" s="36">
         <v>0.375</v>
@@ -4390,7 +4384,7 @@
         <v>80</v>
       </c>
       <c r="H54" s="37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" ht="17.75" spans="3:8">
@@ -4398,7 +4392,7 @@
         <v>10334393</v>
       </c>
       <c r="D55" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E55" s="36">
         <v>0.375</v>
@@ -4410,7 +4404,7 @@
         <v>80</v>
       </c>
       <c r="H55" s="37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" ht="17.75" spans="3:8">
@@ -4430,7 +4424,7 @@
         <v>80</v>
       </c>
       <c r="H56" s="37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" ht="17.75" spans="3:8">
@@ -4438,7 +4432,7 @@
         <v>10334343</v>
       </c>
       <c r="D57" s="35" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E57" s="36">
         <v>0.375</v>
@@ -4469,7 +4463,7 @@
       <c r="G58" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="H58" s="39" t="s">
+      <c r="H58" s="38" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4490,7 +4484,7 @@
         <v>138</v>
       </c>
       <c r="H59" s="37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" ht="17.75" spans="3:8">
@@ -4507,10 +4501,10 @@
         <v>0.708333333333333</v>
       </c>
       <c r="G60" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="H60" s="37" t="s">
         <v>174</v>
-      </c>
-      <c r="H60" s="37" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="63" spans="2:7">
@@ -4558,7 +4552,7 @@
         <v>10334375</v>
       </c>
       <c r="C65" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D65" t="s">
         <v>73</v>
@@ -4610,12 +4604,12 @@
         <v>1070869955</v>
       </c>
       <c r="G67" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68" spans="2:7">
       <c r="B68" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C68" t="s">
         <v>79</v>
@@ -4730,7 +4724,7 @@
         <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="74" spans="2:7">
@@ -4770,7 +4764,7 @@
         <v>1556051017</v>
       </c>
       <c r="G75" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76" spans="2:7">
@@ -4784,10 +4778,10 @@
         <v>71</v>
       </c>
       <c r="E76" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G76" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77" spans="2:7">
@@ -4807,7 +4801,7 @@
         <v>1145486915</v>
       </c>
       <c r="G77" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="78" spans="2:7">
@@ -4821,10 +4815,10 @@
         <v>80</v>
       </c>
       <c r="E78" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G78" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="79" spans="2:7">
@@ -4864,7 +4858,7 @@
         <v>1024422223</v>
       </c>
       <c r="G80" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="81" spans="2:7">
@@ -4912,10 +4906,10 @@
         <v>10334423</v>
       </c>
       <c r="C83" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D83" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E83" t="s">
         <v>137</v>
@@ -4929,7 +4923,7 @@
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C39:H60" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="C40:H60">
+    <sortState ref="C39:H60">
       <sortCondition ref="G39"/>
     </sortState>
     <extLst/>
@@ -4956,7 +4950,7 @@
   <sheetData>
     <row r="1" ht="15.5" spans="1:1">
       <c r="A1" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:1">
@@ -4964,7 +4958,7 @@
     </row>
     <row r="3" ht="15" spans="1:1">
       <c r="A3" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" ht="15.5" spans="1:1">
@@ -4987,7 +4981,7 @@
     <row r="7" ht="25.75" spans="1:3">
       <c r="A7" s="28"/>
       <c r="B7" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C7" s="22">
         <v>1550623084</v>
@@ -4996,7 +4990,7 @@
     <row r="8" ht="25.75" spans="1:3">
       <c r="A8" s="28"/>
       <c r="B8" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C8" s="22">
         <v>1003219481</v>
@@ -5004,10 +4998,10 @@
     </row>
     <row r="9" ht="25.75" spans="1:3">
       <c r="A9" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="B9" s="22" t="s">
         <v>182</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>183</v>
       </c>
       <c r="C9" s="22">
         <v>1127188332</v>
@@ -5018,7 +5012,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C10" s="23">
         <v>1276707977</v>
@@ -5029,7 +5023,7 @@
         <v>43</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C11" s="22">
         <v>1211337764</v>
@@ -5040,7 +5034,7 @@
         <v>24</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C12" s="23">
         <v>1116487479</v>
@@ -5085,7 +5079,7 @@
     </row>
     <row r="2" ht="50.75" spans="1:5">
       <c r="A2" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B2" s="22">
         <v>1550623084</v>
@@ -5094,15 +5088,15 @@
         <v>65</v>
       </c>
       <c r="D2" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2" s="22" t="s">
         <v>187</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="3" ht="50.75" spans="1:5">
       <c r="A3" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B3" s="22">
         <v>1003219481</v>
@@ -5119,7 +5113,7 @@
     </row>
     <row r="4" ht="50.75" spans="1:5">
       <c r="A4" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B4" s="22">
         <v>1127188332</v>
@@ -5136,7 +5130,7 @@
     </row>
     <row r="5" ht="50.75" spans="1:5">
       <c r="A5" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B5" s="23">
         <v>1276707977</v>
@@ -5153,7 +5147,7 @@
     </row>
     <row r="6" ht="50.75" spans="1:5">
       <c r="A6" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B6" s="22">
         <v>1211337764</v>
@@ -5162,15 +5156,15 @@
         <v>65</v>
       </c>
       <c r="D6" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" s="22" t="s">
         <v>189</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="7" ht="50.75" spans="1:5">
       <c r="A7" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B7" s="23">
         <v>1116487479</v>
@@ -5213,10 +5207,10 @@
   <sheetData>
     <row r="1" customHeight="1" spans="6:8">
       <c r="F1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H1" t="s">
         <v>191</v>
-      </c>
-      <c r="H1" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5256,7 +5250,7 @@
         <v>106</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>112</v>
@@ -5265,7 +5259,7 @@
         <v>84</v>
       </c>
       <c r="H3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5282,7 +5276,7 @@
         <v>106</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>112</v>
@@ -5291,7 +5285,7 @@
         <v>84</v>
       </c>
       <c r="H4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5308,16 +5302,16 @@
         <v>106</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="H5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5334,16 +5328,16 @@
         <v>106</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="H6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5360,7 +5354,7 @@
         <v>106</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>80</v>
@@ -5369,7 +5363,7 @@
         <v>81</v>
       </c>
       <c r="H7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5386,16 +5380,16 @@
         <v>106</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>73</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="3:7">
@@ -5443,30 +5437,30 @@
     <row r="15" ht="15.25"/>
     <row r="16" spans="3:9">
       <c r="C16" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="E16" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="F16" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="G16" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="H16" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="I16" s="9" t="s">
         <v>205</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="17" ht="15.25" spans="1:9">
       <c r="A17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
@@ -5478,13 +5472,13 @@
     </row>
     <row r="18" ht="15.25" spans="1:9">
       <c r="A18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C18" s="12">
         <v>10334245</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E18" s="14">
         <v>0.375</v>
@@ -5496,21 +5490,21 @@
         <v>1003219481</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="1:9">
       <c r="A19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C19" s="12">
         <v>10334246</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E19" s="14">
         <v>0.375</v>
@@ -5522,7 +5516,7 @@
         <v>1211337764</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I19" s="15" t="s">
         <v>79</v>
@@ -5530,13 +5524,13 @@
     </row>
     <row r="20" ht="15.25" spans="1:9">
       <c r="A20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C20" s="12">
         <v>10334248</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E20" s="14">
         <v>0.375</v>
@@ -5548,7 +5542,7 @@
         <v>1116487479</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I20" s="16" t="s">
         <v>84</v>
@@ -5559,7 +5553,7 @@
         <v>10334247</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E21" s="14">
         <v>0.375</v>
@@ -5571,7 +5565,7 @@
         <v>1276707977</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I21" s="13" t="s">
         <v>84</v>

--- a/Accounts-Schedules/تدريب سامسونج و ايرالو 9-6-2025 تجمع.xlsx
+++ b/Accounts-Schedules/تدريب سامسونج و ايرالو 9-6-2025 تجمع.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="220">
   <si>
     <t>Hello team, </t>
   </si>
@@ -491,43 +491,67 @@
     <t>Departure: 5:00 PM</t>
   </si>
   <si>
+    <t>ي - بدر</t>
+  </si>
+  <si>
+    <t>مدينه بدر</t>
+  </si>
+  <si>
+    <t>Start date: 16/6/2025</t>
+  </si>
+  <si>
+    <t>الجزيره</t>
+  </si>
+  <si>
+    <t>End Date: 20/6/2025</t>
+  </si>
+  <si>
+    <t>Location: 5th Settlement</t>
+  </si>
+  <si>
+    <t>Alaa Mohamed</t>
+  </si>
+  <si>
+    <t>ميدان رابعه</t>
+  </si>
+  <si>
+    <t>Anas Hany Elgharabawy</t>
+  </si>
+  <si>
+    <t>Bassel Hisham</t>
+  </si>
+  <si>
+    <t>Elwaleed Abuagla</t>
+  </si>
+  <si>
+    <t>بوابه 6</t>
+  </si>
+  <si>
     <t>Eslam Ashour</t>
   </si>
   <si>
-    <t>Start date: 16/6/2025</t>
+    <t>Hibatalla Mohamed Ali Mohamed</t>
   </si>
   <si>
     <t>هليوبلس</t>
   </si>
   <si>
-    <t>End Date: 20/6/2025</t>
-  </si>
-  <si>
     <t>روكسي</t>
   </si>
   <si>
-    <t>Location: 5th Settlement</t>
-  </si>
-  <si>
-    <t>Bassel Hisham</t>
-  </si>
-  <si>
     <t>X1</t>
   </si>
   <si>
     <t>سلم صقر</t>
   </si>
   <si>
-    <t>الجزيره</t>
-  </si>
-  <si>
-    <t>بوابه 6</t>
-  </si>
-  <si>
-    <t>Hibatalla Mohamed Ali Mohamed</t>
-  </si>
-  <si>
-    <t>Elwaleed Abuagla</t>
+    <t>Mohamed Osama</t>
+  </si>
+  <si>
+    <t>الحي العاشر</t>
+  </si>
+  <si>
+    <t>جامع السلام</t>
   </si>
   <si>
     <t>Wafaa Salah</t>
@@ -536,39 +560,42 @@
     <t>ارابيلا بلازا</t>
   </si>
   <si>
-    <t>Alaa Mohamed</t>
-  </si>
-  <si>
-    <t>ميدان رابعه</t>
-  </si>
-  <si>
-    <t>Mohamed Osama</t>
-  </si>
-  <si>
-    <t>الحي العاشر</t>
-  </si>
-  <si>
-    <t>جامع السلام</t>
-  </si>
-  <si>
-    <t>Anas Hany Elgharabawy</t>
-  </si>
-  <si>
     <t>بوابه 1</t>
   </si>
   <si>
-    <t>ي - بدر</t>
-  </si>
-  <si>
-    <t>مدينه بدر</t>
-  </si>
-  <si>
     <t>وفاء صلاح</t>
   </si>
   <si>
     <t>محمد اسامة</t>
   </si>
   <si>
+    <t>Airalo — Wave 43</t>
+  </si>
+  <si>
+    <t>مدينتي و الشروق</t>
+  </si>
+  <si>
+    <t>التجمع و الرحاب</t>
+  </si>
+  <si>
+    <t>Start date: 23/6/2025</t>
+  </si>
+  <si>
+    <t>مدينه نصر</t>
+  </si>
+  <si>
+    <t>End Date: 27/6/2025</t>
+  </si>
+  <si>
+    <t>جسر السويس</t>
+  </si>
+  <si>
+    <t>ميدان ابن الحكم الزيتون</t>
+  </si>
+  <si>
+    <t>مصر الجديده</t>
+  </si>
+  <si>
     <t>Below is the list of trainees scheduled for training at Samsung on Monday, June 9th, from 9 AM to 6 PM. Please ensure that if you are unable to reach any of the candidates listed below, you reply to this thread to avoid any transportation issues.</t>
   </si>
   <si>
@@ -660,9 +687,6 @@
   </si>
   <si>
     <t>• Departure Time: 6:00 PM</t>
-  </si>
-  <si>
-    <t>جسر السويس</t>
   </si>
   <si>
     <t>• Start Date: 16/06/2025</t>
@@ -1602,7 +1626,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1709,6 +1733,30 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2125,358 +2173,358 @@
       <c r="A5" s="24"/>
     </row>
     <row r="6" ht="15.25" spans="1:3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="54" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" ht="15.25" spans="1:3">
-      <c r="A7" s="47"/>
-      <c r="B7" s="42" t="s">
+      <c r="A7" s="55"/>
+      <c r="B7" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="49">
         <v>1155235315</v>
       </c>
     </row>
     <row r="8" ht="15.25" spans="1:3">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="49">
         <v>1113212112</v>
       </c>
     </row>
     <row r="9" ht="15.25" spans="1:3">
-      <c r="A9" s="47"/>
-      <c r="B9" s="42" t="s">
+      <c r="A9" s="55"/>
+      <c r="B9" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C9" s="50">
         <v>1227678800</v>
       </c>
     </row>
     <row r="10" ht="15.25" spans="1:3">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="50" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" ht="15.25" spans="1:3">
-      <c r="A11" s="47"/>
-      <c r="B11" s="42" t="s">
+      <c r="A11" s="55"/>
+      <c r="B11" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="42">
+      <c r="C11" s="50">
         <v>1098767288</v>
       </c>
     </row>
     <row r="12" ht="15.25" spans="1:3">
-      <c r="A12" s="47"/>
-      <c r="B12" s="42" t="s">
+      <c r="A12" s="55"/>
+      <c r="B12" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="50">
         <v>1024422223</v>
       </c>
     </row>
     <row r="13" ht="15.25" spans="1:3">
-      <c r="A13" s="47"/>
-      <c r="B13" s="42" t="s">
+      <c r="A13" s="55"/>
+      <c r="B13" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="50">
         <v>1008797315</v>
       </c>
     </row>
     <row r="14" ht="15.25" spans="1:3">
-      <c r="A14" s="47"/>
-      <c r="B14" s="42" t="s">
+      <c r="A14" s="55"/>
+      <c r="B14" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="42">
+      <c r="C14" s="50">
         <v>1094838040</v>
       </c>
     </row>
     <row r="15" ht="15.25" spans="1:3">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15" s="57">
         <v>1227411514</v>
       </c>
     </row>
     <row r="16" ht="15.25" spans="1:3">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="49">
+      <c r="C16" s="57">
         <v>1145486915</v>
       </c>
     </row>
     <row r="17" ht="15.25" spans="1:3">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="57" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" ht="15.25" spans="1:3">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="49">
+      <c r="C18" s="57">
         <v>1112246872</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="1:3">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="49">
+      <c r="C19" s="57">
         <v>1028515847</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="1:3">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="49" t="s">
+      <c r="C20" s="57" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" ht="15.25" spans="1:3">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="52">
+      <c r="C21" s="60">
         <v>1067003524</v>
       </c>
     </row>
     <row r="22" ht="15.25" spans="1:3">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="60" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="23" ht="15.25" spans="1:3">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="42">
+      <c r="C23" s="50">
         <v>1147359910</v>
       </c>
     </row>
     <row r="24" ht="15.25" spans="1:3">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="42">
+      <c r="C24" s="50">
         <v>1123326376</v>
       </c>
     </row>
     <row r="25" ht="15.25" spans="1:3">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="42">
+      <c r="C25" s="50">
         <v>1556051017</v>
       </c>
     </row>
     <row r="26" ht="15.25" spans="1:3">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="42">
+      <c r="C26" s="50">
         <v>1288880146</v>
       </c>
     </row>
     <row r="27" ht="15.25" spans="1:3">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="42">
+      <c r="C27" s="50">
         <v>1553553976</v>
       </c>
     </row>
     <row r="28" ht="15.25" spans="1:3">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="42">
+      <c r="C28" s="50">
         <v>1001984292</v>
       </c>
     </row>
     <row r="29" ht="15.25" spans="1:3">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="42">
+      <c r="C29" s="50">
         <v>1022521573</v>
       </c>
     </row>
     <row r="30" ht="15.25" spans="1:3">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="42">
+      <c r="C30" s="50">
         <v>1110092210</v>
       </c>
     </row>
     <row r="31" ht="15.25" spans="1:3">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="42">
+      <c r="C31" s="50">
         <v>1142634858</v>
       </c>
     </row>
     <row r="32" ht="15.25" spans="1:3">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="53" t="s">
+      <c r="C32" s="61" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="33" ht="15.25" spans="1:3">
-      <c r="A33" s="44" t="s">
+      <c r="A33" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="53" t="s">
+      <c r="B33" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="42">
+      <c r="C33" s="50">
         <v>1019757946</v>
       </c>
     </row>
     <row r="34" ht="15.25" spans="1:3">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="53">
+      <c r="C34" s="61">
         <v>1142757572</v>
       </c>
     </row>
     <row r="35" ht="15.25" spans="1:3">
-      <c r="A35" s="54" t="s">
+      <c r="A35" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="55" t="s">
+      <c r="B35" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="55">
+      <c r="C35" s="63">
         <v>1090305240</v>
       </c>
     </row>
     <row r="36" ht="15.25" spans="1:3">
-      <c r="A36" s="56"/>
-      <c r="B36" s="57" t="s">
+      <c r="A36" s="64"/>
+      <c r="B36" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="57">
+      <c r="C36" s="65">
         <v>1507537460</v>
       </c>
     </row>
     <row r="37" ht="15.25" spans="1:3">
-      <c r="A37" s="58"/>
-      <c r="B37" s="59" t="s">
+      <c r="A37" s="66"/>
+      <c r="B37" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="59">
+      <c r="C37" s="67">
         <v>1141908301</v>
       </c>
     </row>
     <row r="38" ht="15.25" spans="1:3">
-      <c r="A38" s="60" t="s">
+      <c r="A38" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="59" t="s">
+      <c r="B38" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="C38" s="59">
+      <c r="C38" s="67">
         <v>1202222178</v>
       </c>
     </row>
     <row r="39" ht="15.25" spans="1:3">
-      <c r="A39" s="61"/>
-      <c r="B39" s="53" t="s">
+      <c r="A39" s="69"/>
+      <c r="B39" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="42">
+      <c r="C39" s="50">
         <v>1070869955</v>
       </c>
     </row>
@@ -2509,16 +2557,16 @@
       <c r="A1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="48" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2526,16 +2574,16 @@
       <c r="A2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="49">
         <v>1155235315</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="50" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2543,16 +2591,16 @@
       <c r="A3" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="41">
+      <c r="B3" s="49">
         <v>1113212112</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="50" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2560,16 +2608,16 @@
       <c r="A4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="42">
+      <c r="B4" s="50">
         <v>1227678800</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="50" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2577,16 +2625,16 @@
       <c r="A5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="50" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2594,16 +2642,16 @@
       <c r="A6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="42">
+      <c r="B6" s="50">
         <v>1098767288</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="50" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2611,16 +2659,16 @@
       <c r="A7" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="50">
         <v>1024422223</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="50" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2628,16 +2676,16 @@
       <c r="A8" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="42">
+      <c r="B8" s="50">
         <v>1008797315</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="50" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2645,16 +2693,16 @@
       <c r="A9" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="42">
+      <c r="B9" s="50">
         <v>1094838040</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="50" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2662,50 +2710,50 @@
       <c r="A10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="42">
+      <c r="B10" s="50">
         <v>1227411514</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="50" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="11" ht="15.25" spans="1:5">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="42">
+      <c r="B11" s="50">
         <v>1145486915</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="50" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="12" ht="15.25" spans="1:5">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="50" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2713,16 +2761,16 @@
       <c r="A13" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="42">
+      <c r="B13" s="50">
         <v>1112246872</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="50" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2730,16 +2778,16 @@
       <c r="A14" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="42">
+      <c r="B14" s="50">
         <v>1028515847</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="42" t="s">
+      <c r="E14" s="50" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2747,16 +2795,16 @@
       <c r="A15" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="50" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2764,16 +2812,16 @@
       <c r="A16" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="42">
+      <c r="B16" s="50">
         <v>1067003524</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="50" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2781,16 +2829,16 @@
       <c r="A17" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="42" t="s">
+      <c r="E17" s="50" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2798,16 +2846,16 @@
       <c r="A18" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="42">
+      <c r="B18" s="50">
         <v>1147359910</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="50" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2815,16 +2863,16 @@
       <c r="A19" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="42">
+      <c r="B19" s="50">
         <v>1123326376</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="E19" s="42" t="s">
+      <c r="E19" s="50" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2832,16 +2880,16 @@
       <c r="A20" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="42">
+      <c r="B20" s="50">
         <v>1556051017</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="42" t="s">
+      <c r="E20" s="50" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2849,16 +2897,16 @@
       <c r="A21" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="42">
+      <c r="B21" s="50">
         <v>1288880146</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="42" t="s">
+      <c r="E21" s="50" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2866,16 +2914,16 @@
       <c r="A22" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="42">
+      <c r="B22" s="50">
         <v>1553553976</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="42" t="s">
+      <c r="D22" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="42" t="s">
+      <c r="E22" s="50" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2883,16 +2931,16 @@
       <c r="A23" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="42">
+      <c r="B23" s="50">
         <v>1001984292</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="42" t="s">
+      <c r="D23" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="42" t="s">
+      <c r="E23" s="50" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2900,16 +2948,16 @@
       <c r="A24" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="42">
+      <c r="B24" s="50">
         <v>1022521573</v>
       </c>
-      <c r="C24" s="42" t="s">
+      <c r="C24" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="42" t="s">
+      <c r="D24" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="E24" s="42" t="s">
+      <c r="E24" s="50" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2917,16 +2965,16 @@
       <c r="A25" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="42">
+      <c r="B25" s="50">
         <v>1110092210</v>
       </c>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="42" t="s">
+      <c r="D25" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="42" t="s">
+      <c r="E25" s="50" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2934,16 +2982,16 @@
       <c r="A26" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="42">
+      <c r="B26" s="50">
         <v>1142634858</v>
       </c>
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="42" t="s">
+      <c r="D26" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="42" t="s">
+      <c r="E26" s="50" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2951,16 +2999,16 @@
       <c r="A27" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="42" t="s">
+      <c r="D27" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="42" t="s">
+      <c r="E27" s="50" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2968,16 +3016,16 @@
       <c r="A28" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="42">
+      <c r="B28" s="50">
         <v>1019757946</v>
       </c>
-      <c r="C28" s="42" t="s">
+      <c r="C28" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="42" t="s">
+      <c r="D28" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="42" t="s">
+      <c r="E28" s="50" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2985,16 +3033,16 @@
       <c r="A29" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="42">
+      <c r="B29" s="50">
         <v>1142757572</v>
       </c>
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="42" t="s">
+      <c r="D29" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="42" t="s">
+      <c r="E29" s="50" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3002,16 +3050,16 @@
       <c r="A30" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="B30" s="42">
+      <c r="B30" s="50">
         <v>1090305240</v>
       </c>
-      <c r="C30" s="42" t="s">
+      <c r="C30" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="42" t="s">
+      <c r="D30" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="E30" s="42" t="s">
+      <c r="E30" s="50" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3019,16 +3067,16 @@
       <c r="A31" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="42">
+      <c r="B31" s="50">
         <v>1507537460</v>
       </c>
-      <c r="C31" s="42" t="s">
+      <c r="C31" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="42" t="s">
+      <c r="D31" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="E31" s="42" t="s">
+      <c r="E31" s="50" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3036,33 +3084,33 @@
       <c r="A32" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="42">
+      <c r="B32" s="50">
         <v>1141908301</v>
       </c>
-      <c r="C32" s="42" t="s">
+      <c r="C32" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="42" t="s">
+      <c r="D32" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="E32" s="42" t="s">
+      <c r="E32" s="50" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="33" ht="15.25" spans="1:5">
-      <c r="A33" s="44" t="s">
+      <c r="A33" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="42">
+      <c r="B33" s="50">
         <v>1202222178</v>
       </c>
-      <c r="C33" s="42" t="s">
+      <c r="C33" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="42" t="s">
+      <c r="D33" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="E33" s="42" t="s">
+      <c r="E33" s="50" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3070,16 +3118,16 @@
       <c r="A34" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="42">
+      <c r="B34" s="50">
         <v>1070869955</v>
       </c>
-      <c r="C34" s="42" t="s">
+      <c r="C34" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="42" t="s">
+      <c r="D34" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="E34" s="42" t="s">
+      <c r="E34" s="50" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3087,16 +3135,16 @@
       <c r="A35" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="C35" s="42" t="s">
+      <c r="C35" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="42" t="s">
+      <c r="D35" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="E35" s="42" t="s">
+      <c r="E35" s="50" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3109,10 +3157,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J83"/>
+  <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87:F107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -4044,7 +4092,7 @@
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" ht="15.25" spans="1:10">
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>146</v>
       </c>
@@ -4069,34 +4117,34 @@
         <v>150</v>
       </c>
       <c r="C40" s="34">
-        <v>10334372</v>
+        <v>10334423</v>
       </c>
       <c r="D40" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="36">
+        <v>0.375</v>
+      </c>
+      <c r="F40" s="36">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G40" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="E40" s="36">
-        <v>0.375</v>
-      </c>
-      <c r="F40" s="36">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G40" s="37" t="s">
-        <v>73</v>
-      </c>
       <c r="H40" s="37" t="s">
-        <v>90</v>
+        <v>152</v>
       </c>
       <c r="J40" s="7"/>
     </row>
     <row r="41" ht="17.75" spans="1:10">
       <c r="A41" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C41" s="34">
-        <v>10334447</v>
+        <v>10334451</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E41" s="36">
         <v>0.375</v>
@@ -4104,23 +4152,23 @@
       <c r="F41" s="36">
         <v>0.708333333333333</v>
       </c>
-      <c r="G41" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="H41" s="37" t="s">
-        <v>153</v>
+      <c r="G41" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="H41" s="38" t="s">
+        <v>154</v>
       </c>
       <c r="J41" s="7"/>
     </row>
     <row r="42" ht="17.75" spans="1:10">
       <c r="A42" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C42" s="34">
-        <v>10334375</v>
+        <v>10334449</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E42" s="36">
         <v>0.375</v>
@@ -4129,10 +4177,10 @@
         <v>0.708333333333333</v>
       </c>
       <c r="G42" s="37" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="H42" s="37" t="s">
-        <v>155</v>
+        <v>84</v>
       </c>
       <c r="J42" s="7"/>
     </row>
@@ -4141,10 +4189,10 @@
         <v>156</v>
       </c>
       <c r="C43" s="34">
-        <v>10334449</v>
+        <v>10334370</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>25</v>
+        <v>157</v>
       </c>
       <c r="E43" s="36">
         <v>0.375</v>
@@ -4153,19 +4201,19 @@
         <v>0.708333333333333</v>
       </c>
       <c r="G43" s="37" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="H43" s="37" t="s">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="J43" s="7"/>
     </row>
     <row r="44" ht="17.75" spans="3:10">
       <c r="C44" s="34">
-        <v>10334381</v>
+        <v>10334343</v>
       </c>
       <c r="D44" s="35" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E44" s="36">
         <v>0.375</v>
@@ -4174,19 +4222,19 @@
         <v>0.708333333333333</v>
       </c>
       <c r="G44" s="37" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="H44" s="37" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="J44" s="7"/>
     </row>
     <row r="45" ht="17.75" spans="3:10">
-      <c r="C45" s="12" t="s">
-        <v>158</v>
+      <c r="C45" s="34">
+        <v>10318448</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E45" s="36">
         <v>0.375</v>
@@ -4194,20 +4242,20 @@
       <c r="F45" s="36">
         <v>0.708333333333333</v>
       </c>
-      <c r="G45" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="H45" s="37" t="s">
-        <v>79</v>
+      <c r="G45" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="H45" s="38" t="s">
+        <v>83</v>
       </c>
       <c r="J45" s="7"/>
     </row>
     <row r="46" ht="17.75" spans="3:10">
       <c r="C46" s="34">
-        <v>10334342</v>
+        <v>10334381</v>
       </c>
       <c r="D46" s="35" t="s">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="E46" s="36">
         <v>0.375</v>
@@ -4216,19 +4264,19 @@
         <v>0.708333333333333</v>
       </c>
       <c r="G46" s="37" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="H46" s="37" t="s">
-        <v>159</v>
+        <v>84</v>
       </c>
       <c r="J46" s="7"/>
     </row>
     <row r="47" ht="17.75" spans="3:10">
       <c r="C47" s="34">
-        <v>10318448</v>
+        <v>10334366</v>
       </c>
       <c r="D47" s="35" t="s">
-        <v>22</v>
+        <v>161</v>
       </c>
       <c r="E47" s="36">
         <v>0.375</v>
@@ -4237,19 +4285,19 @@
         <v>0.708333333333333</v>
       </c>
       <c r="G47" s="38" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="H47" s="38" t="s">
-        <v>83</v>
+        <v>162</v>
       </c>
       <c r="J47" s="7"/>
     </row>
     <row r="48" ht="17.75" spans="3:10">
       <c r="C48" s="34">
-        <v>10334451</v>
+        <v>10334372</v>
       </c>
       <c r="D48" s="35" t="s">
-        <v>27</v>
+        <v>163</v>
       </c>
       <c r="E48" s="36">
         <v>0.375</v>
@@ -4257,20 +4305,20 @@
       <c r="F48" s="36">
         <v>0.708333333333333</v>
       </c>
-      <c r="G48" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="H48" s="38" t="s">
-        <v>160</v>
+      <c r="G48" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="H48" s="37" t="s">
+        <v>90</v>
       </c>
       <c r="J48" s="7"/>
     </row>
     <row r="49" ht="17.75" spans="3:10">
       <c r="C49" s="34">
-        <v>10334398</v>
+        <v>10334368</v>
       </c>
       <c r="D49" s="35" t="s">
-        <v>56</v>
+        <v>164</v>
       </c>
       <c r="E49" s="36">
         <v>0.375</v>
@@ -4281,17 +4329,17 @@
       <c r="G49" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="H49" s="38" t="s">
-        <v>161</v>
+      <c r="H49" s="37" t="s">
+        <v>162</v>
       </c>
       <c r="J49" s="7"/>
     </row>
     <row r="50" ht="17.75" spans="3:10">
       <c r="C50" s="34">
-        <v>10334368</v>
+        <v>10334447</v>
       </c>
       <c r="D50" s="35" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="E50" s="36">
         <v>0.375</v>
@@ -4299,20 +4347,20 @@
       <c r="F50" s="36">
         <v>0.708333333333333</v>
       </c>
-      <c r="G50" s="38" t="s">
-        <v>71</v>
+      <c r="G50" s="37" t="s">
+        <v>73</v>
       </c>
       <c r="H50" s="37" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="J50" s="7"/>
     </row>
     <row r="51" ht="17.75" spans="3:8">
       <c r="C51" s="34">
-        <v>10334465</v>
+        <v>10334375</v>
       </c>
       <c r="D51" s="35" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E51" s="36">
         <v>0.375</v>
@@ -4320,19 +4368,19 @@
       <c r="F51" s="36">
         <v>0.708333333333333</v>
       </c>
-      <c r="G51" s="38" t="s">
-        <v>71</v>
+      <c r="G51" s="37" t="s">
+        <v>73</v>
       </c>
       <c r="H51" s="37" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" ht="17.75" spans="3:8">
       <c r="C52" s="34">
-        <v>10334366</v>
+        <v>10334465</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>163</v>
+        <v>51</v>
       </c>
       <c r="E52" s="36">
         <v>0.375</v>
@@ -4343,16 +4391,16 @@
       <c r="G52" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="H52" s="38" t="s">
-        <v>161</v>
+      <c r="H52" s="37" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="53" ht="17.75" spans="3:8">
-      <c r="C53" s="34">
-        <v>10334476</v>
+      <c r="C53" s="12" t="s">
+        <v>167</v>
       </c>
       <c r="D53" s="35" t="s">
-        <v>164</v>
+        <v>18</v>
       </c>
       <c r="E53" s="36">
         <v>0.375</v>
@@ -4360,19 +4408,19 @@
       <c r="F53" s="36">
         <v>0.708333333333333</v>
       </c>
-      <c r="G53" s="38" t="s">
-        <v>71</v>
+      <c r="G53" s="37" t="s">
+        <v>66</v>
       </c>
       <c r="H53" s="37" t="s">
-        <v>165</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" ht="17.75" spans="3:8">
       <c r="C54" s="34">
-        <v>10334370</v>
+        <v>10334342</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>166</v>
+        <v>6</v>
       </c>
       <c r="E54" s="36">
         <v>0.375</v>
@@ -4381,10 +4429,10 @@
         <v>0.708333333333333</v>
       </c>
       <c r="G54" s="37" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="H54" s="37" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" ht="17.75" spans="3:8">
@@ -4392,7 +4440,7 @@
         <v>10334393</v>
       </c>
       <c r="D55" s="35" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E55" s="36">
         <v>0.375</v>
@@ -4404,15 +4452,15 @@
         <v>80</v>
       </c>
       <c r="H55" s="37" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" ht="17.75" spans="3:8">
       <c r="C56" s="34">
-        <v>10334367</v>
+        <v>10334398</v>
       </c>
       <c r="D56" s="35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E56" s="36">
         <v>0.375</v>
@@ -4420,31 +4468,31 @@
       <c r="F56" s="36">
         <v>0.708333333333333</v>
       </c>
-      <c r="G56" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="H56" s="37" t="s">
-        <v>170</v>
+      <c r="G56" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="H56" s="38" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="57" ht="17.75" spans="3:8">
       <c r="C57" s="34">
-        <v>10334343</v>
+        <v>10334367</v>
       </c>
       <c r="D57" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E57" s="36">
+        <v>0.375</v>
+      </c>
+      <c r="F57" s="36">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G57" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="H57" s="37" t="s">
         <v>171</v>
-      </c>
-      <c r="E57" s="36">
-        <v>0.375</v>
-      </c>
-      <c r="F57" s="36">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G57" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="H57" s="37" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="58" ht="17.75" spans="3:8">
@@ -4469,10 +4517,10 @@
     </row>
     <row r="59" ht="17.75" spans="3:8">
       <c r="C59" s="34">
-        <v>10334395</v>
+        <v>10334476</v>
       </c>
       <c r="D59" s="35" t="s">
-        <v>42</v>
+        <v>172</v>
       </c>
       <c r="E59" s="36">
         <v>0.375</v>
@@ -4480,19 +4528,19 @@
       <c r="F59" s="36">
         <v>0.708333333333333</v>
       </c>
-      <c r="G59" s="37" t="s">
-        <v>138</v>
+      <c r="G59" s="38" t="s">
+        <v>71</v>
       </c>
       <c r="H59" s="37" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" ht="17.75" spans="3:8">
       <c r="C60" s="34">
-        <v>10334423</v>
+        <v>10334395</v>
       </c>
       <c r="D60" s="35" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="E60" s="36">
         <v>0.375</v>
@@ -4501,7 +4549,7 @@
         <v>0.708333333333333</v>
       </c>
       <c r="G60" s="37" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="H60" s="37" t="s">
         <v>174</v>
@@ -4524,7 +4572,7 @@
         <v>1001984292</v>
       </c>
       <c r="G63" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="2:7">
@@ -4552,7 +4600,7 @@
         <v>10334375</v>
       </c>
       <c r="C65" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="D65" t="s">
         <v>73</v>
@@ -4604,12 +4652,12 @@
         <v>1070869955</v>
       </c>
       <c r="G67" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" spans="2:7">
       <c r="B68" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="C68" t="s">
         <v>79</v>
@@ -4724,7 +4772,7 @@
         <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="74" spans="2:7">
@@ -4764,7 +4812,7 @@
         <v>1556051017</v>
       </c>
       <c r="G75" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="76" spans="2:7">
@@ -4781,7 +4829,7 @@
         <v>175</v>
       </c>
       <c r="G76" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="77" spans="2:7">
@@ -4801,7 +4849,7 @@
         <v>1145486915</v>
       </c>
       <c r="G77" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="78" spans="2:7">
@@ -4818,7 +4866,7 @@
         <v>176</v>
       </c>
       <c r="G78" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="79" spans="2:7">
@@ -4858,7 +4906,7 @@
         <v>1024422223</v>
       </c>
       <c r="G80" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="81" spans="2:7">
@@ -4906,10 +4954,10 @@
         <v>10334423</v>
       </c>
       <c r="C83" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="D83" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="E83" t="s">
         <v>137</v>
@@ -4921,10 +4969,464 @@
         <v>15</v>
       </c>
     </row>
+    <row r="86" ht="15.25" spans="1:8">
+      <c r="A86" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="C86" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="D86" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="E86" s="40"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="H86" s="40" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="87" ht="17.75" spans="3:8">
+      <c r="C87" s="41">
+        <v>10334423</v>
+      </c>
+      <c r="D87" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E87" s="36">
+        <v>0.375</v>
+      </c>
+      <c r="F87" s="36">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G87" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="H87" s="43" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="88" ht="17.75" spans="1:8">
+      <c r="A88" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C88" s="41">
+        <v>10334451</v>
+      </c>
+      <c r="D88" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="E88" s="36">
+        <v>0.375</v>
+      </c>
+      <c r="F88" s="36">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G88" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="H88" s="45" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="89" ht="17.75" spans="1:8">
+      <c r="A89" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="C89" s="41">
+        <v>10334449</v>
+      </c>
+      <c r="D89" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E89" s="36">
+        <v>0.375</v>
+      </c>
+      <c r="F89" s="36">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G89" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="H89" s="43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" ht="17.75" spans="1:8">
+      <c r="A90" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="C90" s="41">
+        <v>10334370</v>
+      </c>
+      <c r="D90" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="E90" s="36">
+        <v>0.375</v>
+      </c>
+      <c r="F90" s="36">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G90" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="H90" s="43" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="91" ht="17.75" spans="1:8">
+      <c r="A91" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="C91" s="41">
+        <v>10334343</v>
+      </c>
+      <c r="D91" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="E91" s="36">
+        <v>0.375</v>
+      </c>
+      <c r="F91" s="36">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G91" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="H91" s="43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="92" ht="17.75" spans="1:8">
+      <c r="A92" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="C92" s="41">
+        <v>10318448</v>
+      </c>
+      <c r="D92" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E92" s="36">
+        <v>0.375</v>
+      </c>
+      <c r="F92" s="36">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G92" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="H92" s="45" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="93" ht="17.75" spans="3:8">
+      <c r="C93" s="41">
+        <v>10334381</v>
+      </c>
+      <c r="D93" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="E93" s="36">
+        <v>0.375</v>
+      </c>
+      <c r="F93" s="36">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G93" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="H93" s="43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="94" ht="17.75" spans="3:8">
+      <c r="C94" s="41">
+        <v>10334366</v>
+      </c>
+      <c r="D94" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="E94" s="36">
+        <v>0.375</v>
+      </c>
+      <c r="F94" s="36">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G94" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="H94" s="45" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="95" ht="17.75" spans="3:8">
+      <c r="C95" s="41">
+        <v>10334372</v>
+      </c>
+      <c r="D95" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="E95" s="36">
+        <v>0.375</v>
+      </c>
+      <c r="F95" s="36">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G95" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="H95" s="43" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="96" ht="17.75" spans="3:8">
+      <c r="C96" s="41">
+        <v>10334368</v>
+      </c>
+      <c r="D96" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="E96" s="36">
+        <v>0.375</v>
+      </c>
+      <c r="F96" s="36">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G96" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="H96" s="43" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="97" ht="17.75" spans="3:8">
+      <c r="C97" s="41">
+        <v>10334447</v>
+      </c>
+      <c r="D97" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" s="36">
+        <v>0.375</v>
+      </c>
+      <c r="F97" s="36">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G97" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="H97" s="43" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="98" ht="17.75" spans="3:8">
+      <c r="C98" s="41">
+        <v>10334375</v>
+      </c>
+      <c r="D98" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="E98" s="36">
+        <v>0.375</v>
+      </c>
+      <c r="F98" s="36">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G98" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="H98" s="43" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="99" ht="17.75" spans="3:8">
+      <c r="C99" s="41">
+        <v>10334465</v>
+      </c>
+      <c r="D99" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="E99" s="36">
+        <v>0.375</v>
+      </c>
+      <c r="F99" s="36">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G99" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="H99" s="43" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="100" ht="17.75" spans="3:8">
+      <c r="C100" s="41">
+        <v>10323550</v>
+      </c>
+      <c r="D100" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E100" s="36">
+        <v>0.375</v>
+      </c>
+      <c r="F100" s="36">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G100" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="H100" s="43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="101" ht="17.75" spans="3:8">
+      <c r="C101" s="41">
+        <v>10334342</v>
+      </c>
+      <c r="D101" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101" s="36">
+        <v>0.375</v>
+      </c>
+      <c r="F101" s="36">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G101" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="H101" s="43" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="102" ht="17.75" spans="3:8">
+      <c r="C102" s="41">
+        <v>10334393</v>
+      </c>
+      <c r="D102" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="E102" s="36">
+        <v>0.375</v>
+      </c>
+      <c r="F102" s="36">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G102" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="H102" s="43" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="103" ht="17.75" spans="3:8">
+      <c r="C103" s="41">
+        <v>10334398</v>
+      </c>
+      <c r="D103" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="E103" s="36">
+        <v>0.375</v>
+      </c>
+      <c r="F103" s="36">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G103" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="H103" s="45" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="104" ht="17.75" spans="3:8">
+      <c r="C104" s="41">
+        <v>10334367</v>
+      </c>
+      <c r="D104" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="E104" s="36">
+        <v>0.375</v>
+      </c>
+      <c r="F104" s="36">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G104" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="H104" s="43" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="105" ht="17.75" spans="3:8">
+      <c r="C105" s="41">
+        <v>10334475</v>
+      </c>
+      <c r="D105" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="E105" s="36">
+        <v>0.375</v>
+      </c>
+      <c r="F105" s="36">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G105" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="H105" s="45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="106" ht="17.75" spans="3:8">
+      <c r="C106" s="41">
+        <v>10334476</v>
+      </c>
+      <c r="D106" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="E106" s="36">
+        <v>0.375</v>
+      </c>
+      <c r="F106" s="36">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G106" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="H106" s="43" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="107" ht="17.75" spans="3:8">
+      <c r="C107" s="41">
+        <v>10334395</v>
+      </c>
+      <c r="D107" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="E107" s="36">
+        <v>0.375</v>
+      </c>
+      <c r="F107" s="36">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G107" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="H107" s="43" t="s">
+        <v>174</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C39:H60" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="C39:H60">
-      <sortCondition ref="G39"/>
+    <sortState ref="C40:H60">
+      <sortCondition ref="D39"/>
     </sortState>
     <extLst/>
   </autoFilter>
@@ -4950,7 +5452,7 @@
   <sheetData>
     <row r="1" ht="15.5" spans="1:1">
       <c r="A1" s="24" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:1">
@@ -4958,7 +5460,7 @@
     </row>
     <row r="3" ht="15" spans="1:1">
       <c r="A3" s="25" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" ht="15.5" spans="1:1">
@@ -4981,7 +5483,7 @@
     <row r="7" ht="25.75" spans="1:3">
       <c r="A7" s="28"/>
       <c r="B7" s="22" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="C7" s="22">
         <v>1550623084</v>
@@ -4990,7 +5492,7 @@
     <row r="8" ht="25.75" spans="1:3">
       <c r="A8" s="28"/>
       <c r="B8" s="22" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="C8" s="22">
         <v>1003219481</v>
@@ -4998,10 +5500,10 @@
     </row>
     <row r="9" ht="25.75" spans="1:3">
       <c r="A9" s="29" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="C9" s="22">
         <v>1127188332</v>
@@ -5012,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="C10" s="23">
         <v>1276707977</v>
@@ -5023,7 +5525,7 @@
         <v>43</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="C11" s="22">
         <v>1211337764</v>
@@ -5034,7 +5536,7 @@
         <v>24</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="C12" s="23">
         <v>1116487479</v>
@@ -5079,7 +5581,7 @@
     </row>
     <row r="2" ht="50.75" spans="1:5">
       <c r="A2" s="21" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="B2" s="22">
         <v>1550623084</v>
@@ -5088,15 +5590,15 @@
         <v>65</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" ht="50.75" spans="1:5">
       <c r="A3" s="21" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="B3" s="22">
         <v>1003219481</v>
@@ -5113,7 +5615,7 @@
     </row>
     <row r="4" ht="50.75" spans="1:5">
       <c r="A4" s="21" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B4" s="22">
         <v>1127188332</v>
@@ -5130,7 +5632,7 @@
     </row>
     <row r="5" ht="50.75" spans="1:5">
       <c r="A5" s="21" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="B5" s="23">
         <v>1276707977</v>
@@ -5147,7 +5649,7 @@
     </row>
     <row r="6" ht="50.75" spans="1:5">
       <c r="A6" s="21" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="B6" s="22">
         <v>1211337764</v>
@@ -5156,15 +5658,15 @@
         <v>65</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" ht="50.75" spans="1:5">
       <c r="A7" s="21" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="B7" s="23">
         <v>1116487479</v>
@@ -5207,10 +5709,10 @@
   <sheetData>
     <row r="1" customHeight="1" spans="6:8">
       <c r="F1" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="H1" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5250,7 +5752,7 @@
         <v>106</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>112</v>
@@ -5259,7 +5761,7 @@
         <v>84</v>
       </c>
       <c r="H3" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5276,7 +5778,7 @@
         <v>106</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>112</v>
@@ -5285,7 +5787,7 @@
         <v>84</v>
       </c>
       <c r="H4" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5302,16 +5804,16 @@
         <v>106</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="H5" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5328,16 +5830,16 @@
         <v>106</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="H6" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5354,7 +5856,7 @@
         <v>106</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>80</v>
@@ -5363,7 +5865,7 @@
         <v>81</v>
       </c>
       <c r="H7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5380,16 +5882,16 @@
         <v>106</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>73</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="H8" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="3:7">
@@ -5437,30 +5939,30 @@
     <row r="15" ht="15.25"/>
     <row r="16" spans="3:9">
       <c r="C16" s="8" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" ht="15.25" spans="1:9">
       <c r="A17" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
@@ -5472,13 +5974,13 @@
     </row>
     <row r="18" ht="15.25" spans="1:9">
       <c r="A18" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="C18" s="12">
         <v>10334245</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="E18" s="14">
         <v>0.375</v>
@@ -5490,21 +5992,21 @@
         <v>1003219481</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="1:9">
       <c r="A19" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C19" s="12">
         <v>10334246</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="E19" s="14">
         <v>0.375</v>
@@ -5516,7 +6018,7 @@
         <v>1211337764</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="I19" s="15" t="s">
         <v>79</v>
@@ -5524,13 +6026,13 @@
     </row>
     <row r="20" ht="15.25" spans="1:9">
       <c r="A20" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C20" s="12">
         <v>10334248</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="E20" s="14">
         <v>0.375</v>
@@ -5542,7 +6044,7 @@
         <v>1116487479</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="I20" s="16" t="s">
         <v>84</v>
@@ -5553,7 +6055,7 @@
         <v>10334247</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="E21" s="14">
         <v>0.375</v>
@@ -5565,7 +6067,7 @@
         <v>1276707977</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="I21" s="13" t="s">
         <v>84</v>
